--- a/examples/image/artifact/data/CompareImages.data.xlsx
+++ b/examples/image/artifact/data/CompareImages.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/image/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15DAD7EE-9A66-D448-9778-830FBEAB2CD2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB67D5D-0D3F-924F-A145-972E69D3A83B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="-21140" windowWidth="38400" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6280" yWindow="460" windowWidth="38400" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -55,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>true</t>
   </si>
@@ -168,6 +170,15 @@
   </si>
   <si>
     <t>css=header nav div img</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>nexial.web.pageLoadWaitMs</t>
+  </si>
+  <si>
+    <t>30000</t>
   </si>
 </sst>
 </file>
@@ -685,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AAA194"/>
+  <dimension ref="A1:AAA195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -731,144 +742,151 @@
     </row>
     <row r="4" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="HA4" s="6"/>
-      <c r="AAA4" s="7"/>
+        <v>39</v>
+      </c>
+      <c r="HA4" s="3"/>
+      <c r="AAA4" s="3"/>
     </row>
     <row r="5" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="HA5" s="6"/>
       <c r="AAA5" s="7"/>
     </row>
     <row r="6" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="HA6" s="6"/>
       <c r="AAA6" s="7"/>
     </row>
-    <row r="7" spans="1:703" ht="38" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="HA7" s="6"/>
       <c r="AAA7" s="7"/>
     </row>
-    <row r="8" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:703" ht="38" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>31</v>
+        <v>25</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="HA8" s="6"/>
       <c r="AAA8" s="7"/>
     </row>
     <row r="9" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>30</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="HA9" s="6"/>
+      <c r="AAA9" s="7"/>
     </row>
     <row r="10" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="18" spans="1:2" ht="32" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B18" s="8" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B20" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
     </row>
     <row r="21" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
@@ -1392,10 +1410,13 @@
     <row r="194" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1"/>
     </row>
+    <row r="195" spans="1:1" ht="23" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:B19">
-    <sortCondition ref="A6:A19"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A7:B20">
+    <sortCondition ref="A7:A20"/>
   </sortState>
   <conditionalFormatting sqref="A1:A1048576">
     <cfRule type="beginsWith" dxfId="5" priority="1" stopIfTrue="1" operator="beginsWith" text="//">

--- a/examples/image/artifact/data/CompareImages.data.xlsx
+++ b/examples/image/artifact/data/CompareImages.data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/image/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EB67D5D-0D3F-924F-A145-972E69D3A83B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E7E6E-6418-B34B-B2EC-F274F24B80D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6280" yWindow="460" windowWidth="38400" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>true</t>
   </si>
@@ -145,18 +145,12 @@
     <t>login.username.data</t>
   </si>
   <si>
-    <t>mikeliucc@gmail.com</t>
-  </si>
-  <si>
     <t>login.password.loc</t>
   </si>
   <si>
     <t>id=user_password</t>
   </si>
   <si>
-    <t>crypt:1e17da2681dbce98a1b2096713db90dc2cecf7f50b76a0a0</t>
-  </si>
-  <si>
     <t>login.password.data</t>
   </si>
   <si>
@@ -178,7 +172,10 @@
     <t>nexial.web.pageLoadWaitMs</t>
   </si>
   <si>
-    <t>30000</t>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>&lt;fill-in&gt;</t>
   </si>
 </sst>
 </file>
@@ -698,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA195"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -742,10 +739,10 @@
     </row>
     <row r="4" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="HA4" s="3"/>
       <c r="AAA4" s="3"/>
@@ -755,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="HA5" s="6"/>
       <c r="AAA5" s="7"/>
@@ -792,28 +789,28 @@
     </row>
     <row r="9" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="HA9" s="6"/>
       <c r="AAA9" s="7"/>
     </row>
     <row r="10" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -829,7 +826,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -842,10 +839,10 @@
     </row>
     <row r="15" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">

--- a/examples/image/artifact/data/CompareImages.data.xlsx
+++ b/examples/image/artifact/data/CompareImages.data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/image/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D88E7E6E-6418-B34B-B2EC-F274F24B80D1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37070DE4-C177-9A42-89EC-9A405B9378D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="10560" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="31540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#default" sheetId="2" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>true</t>
   </si>
@@ -145,12 +145,18 @@
     <t>login.username.data</t>
   </si>
   <si>
+    <t>mikeliucc@gmail.com</t>
+  </si>
+  <si>
     <t>login.password.loc</t>
   </si>
   <si>
     <t>id=user_password</t>
   </si>
   <si>
+    <t>crypt:1e17da2681dbce98a1b2096713db90dc2cecf7f50b76a0a0</t>
+  </si>
+  <si>
     <t>login.password.data</t>
   </si>
   <si>
@@ -175,7 +181,10 @@
     <t>45000</t>
   </si>
   <si>
-    <t>&lt;fill-in&gt;</t>
+    <t>2</t>
+  </si>
+  <si>
+    <t>//nexial.imageTolerance</t>
   </si>
 </sst>
 </file>
@@ -695,8 +704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -739,10 +748,10 @@
     </row>
     <row r="4" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="HA4" s="3"/>
       <c r="AAA4" s="3"/>
@@ -752,7 +761,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="HA5" s="6"/>
       <c r="AAA5" s="7"/>
@@ -789,28 +798,28 @@
     </row>
     <row r="9" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="HA9" s="6"/>
       <c r="AAA9" s="7"/>
     </row>
     <row r="10" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -826,7 +835,7 @@
         <v>27</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -839,10 +848,10 @@
     </row>
     <row r="15" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:703" ht="23" customHeight="1" x14ac:dyDescent="0.25">
@@ -886,7 +895,12 @@
       </c>
     </row>
     <row r="21" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="23" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>

--- a/examples/image/artifact/data/CompareImages.data.xlsx
+++ b/examples/image/artifact/data/CompareImages.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/image/artifact/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37070DE4-C177-9A42-89EC-9A405B9378D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F2CC214-3BB7-0D4F-94BC-79DEE1F50666}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="31540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -704,7 +704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AAA195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
